--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_8_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_8_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8991131717504e-10</v>
+        <v>1.849735100767358e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8991131717504e-10</v>
+        <v>1.849735100767358e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.9231498912609</v>
+        <v>39.81735039532097</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.221622052420486, 63.62467773010131]</t>
+          <t>[22.930983689152384, 56.70371710148956]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.681943556126498e-10</v>
+        <v>2.110146588374384e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>2.681943556126498e-10</v>
+        <v>2.110146588374384e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3145002294299628, 1.8428161111147334]</t>
+          <t>[1.1383949355350396, 2.1447109006488887]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>4.420344001943022e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>4.420344001943022e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>58.09501672131221</v>
+        <v>58.43791522169027</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.90485972757562, 66.28517371504878]</t>
+          <t>[47.992648371808066, 68.88318207157246]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.088018564132653e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.088018564132653e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>16.90674674674682</v>
+        <v>16.6733333333334</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.9574374374375</v>
+        <v>14.86592592592598</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.85605605605613</v>
+        <v>18.48074074074082</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.665037213134269e-08</v>
+        <v>9.978557935497179e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.665037213134269e-08</v>
+        <v>9.978557935497179e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.00910760382604</v>
+        <v>40.29302118576967</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[30.470121886086957, 65.54809332156512]</t>
+          <t>[23.97565469223806, 56.610387679301276]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.638667056269583e-06</v>
+        <v>1.004741841059698e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.638667056269583e-06</v>
+        <v>1.004741841059698e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>2.031500354573581</v>
+        <v>2.169868799776735</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.6415529180919641, 2.421447791055197]</t>
+          <t>[1.7547634641672731, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.127986593019159e-13</v>
+        <v>1.010302952408892e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.127986593019159e-13</v>
+        <v>1.010302952408892e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>51.02783443745579</v>
+        <v>58.81485820101456</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.69533448430787, 60.360334390603704]</t>
+          <t>[50.47181123400847, 67.15790516802065]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.331468351712829e-14</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.331468351712829e-14</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.27935935935942</v>
+        <v>14.77555555555561</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.87799799799805</v>
+        <v>13.2844444444445</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.68072072072079</v>
+        <v>16.26666666666673</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.338438658266995e-07</v>
+        <v>9.764208206419767e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.338438658266995e-07</v>
+        <v>9.764208206419767e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.35718627806214</v>
+        <v>37.6097066813717</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.771597137646065, 66.9427754184782]</t>
+          <t>[18.268398481670033, 56.95101488107338]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.416271361076582e-05</v>
+        <v>0.0003021797149178607</v>
       </c>
       <c r="O4" t="n">
-        <v>1.416271361076582e-05</v>
+        <v>0.0003021797149178607</v>
       </c>
       <c r="P4" t="n">
-        <v>2.446605690183042</v>
+        <v>2.39628989192735</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.0440793041375027, 2.8491320762285817]</t>
+          <t>[1.9182898084982725, 2.8742899753564277]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.839151219153791e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.839151219153791e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>61.35831868579722</v>
+        <v>52.26306994642268</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[51.02882290034819, 71.68781447124626]</t>
+          <t>[42.414019011097075, 62.11212088174829]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.78758758758764</v>
+        <v>13.96222222222227</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.34102102102107</v>
+        <v>12.24518518518523</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.23415415415422</v>
+        <v>15.67925925925932</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>9.820838015039968e-07</v>
+        <v>6.831219623304463e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>9.820838015039968e-07</v>
+        <v>6.831219623304463e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>34.85040709254951</v>
+        <v>35.30460813522992</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.15458464024651, 50.54622954485251]</t>
+          <t>[22.247049088392473, 48.36216718206737]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.210858056359235e-05</v>
+        <v>2.059402699039481e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>5.210858056359235e-05</v>
+        <v>2.059402699039481e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.446605690183042</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.0063424554457336, 2.8868689249203507]</t>
+          <t>[2.434026740619119, 3.2390795127101972]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.80990821653426</v>
+        <v>49.97488747957316</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[39.6841566706224, 55.93565976244612]</t>
+          <t>[42.57493138016335, 57.374843578982976]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>13.78758758758764</v>
+        <v>12.38074074074079</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.20540540540545</v>
+        <v>10.93481481481486</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.36976976976983</v>
+        <v>13.82666666666672</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.302230961426233e-08</v>
+        <v>5.109035416950292e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>2.302230961426233e-08</v>
+        <v>5.109035416950292e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.32541805573713</v>
+        <v>53.33270135470645</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.695944985078235, 49.95489112639603]</t>
+          <t>[39.273414372985684, 67.39198833642722]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.519484081948576e-08</v>
+        <v>1.156431839177685e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>3.519484081948576e-08</v>
+        <v>1.156431839177685e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.094421592725082</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.471790079642774, -2.717053105807389]</t>
+          <t>[2.6730267823336584, 3.3019742605298115]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,27 +967,27 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.22179266029963</v>
+        <v>54.69964601716997</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.549574569232014, 57.89401075136724]</t>
+          <t>[46.18554189086881, 63.213750143471124]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>11.12048048048053</v>
+        <v>11.83851851851857</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.764324324324367</v>
+        <v>10.70888888888893</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.47663663663669</v>
+        <v>12.9681481481482</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>4.267618147757446e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>4.267618147757446e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.23241681618863</v>
+        <v>39.88752143047614</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.55867117493933, 60.90616245743794]</t>
+          <t>[25.451224875736933, 54.32381798521535]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.653277928592161e-11</v>
+        <v>1.37465409655313e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>6.653277928592161e-11</v>
+        <v>1.37465409655313e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.654158357987773</v>
+        <v>-2.47805306409285</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.9057373492662344, -2.4025793667093116]</t>
+          <t>[-2.8302636518826962, -2.1258424763030033]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>51.79380860886114</v>
+        <v>52.78325595868335</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.46668725604142, 58.120929961680865]</t>
+          <t>[45.500980563768564, 60.06553135359813]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.538298298298336</v>
+        <v>8.901481481481516</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.634194194194231</v>
+        <v>7.636296296296327</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.44240240240244</v>
+        <v>10.16666666666671</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5512967555551e-07</v>
+        <v>7.26141456741658e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5512967555551e-07</v>
+        <v>7.26141456741658e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.39696584128291</v>
+        <v>37.50398569152924</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[24.992247898328216, 59.80168378423761]</t>
+          <t>[20.93888515798225, 54.06908622507623]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.256121991199954e-05</v>
+        <v>3.917683961951468e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.256121991199954e-05</v>
+        <v>3.917683961951468e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.264210921506157</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -1.8491055858966945]</t>
+          <t>[-2.717053105807389, -1.886842434588464]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.531308496145357e-14</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.531308496145357e-14</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>51.35764324524963</v>
+        <v>48.79899139386255</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.164274192876945, 60.55101229762232]</t>
+          <t>[40.38029031428222, 57.21769247344288]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.13242748511766e-14</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13242748511766e-14</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>8.08648648648651</v>
+        <v>8.210270270270293</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.603963963963983</v>
+        <v>6.729729729729747</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.569009009009038</v>
+        <v>9.690810810810838</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.901614586965252e-10</v>
+        <v>2.687838840387258e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>3.901614586965252e-10</v>
+        <v>2.687838840387258e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.81565962850571</v>
+        <v>57.27137107165192</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[33.77572344011668, 63.85559581689475]</t>
+          <t>[41.778058508566936, 72.76468363473691]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.962276767273011e-08</v>
+        <v>2.238993879188911e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>4.962276767273011e-08</v>
+        <v>2.238993879188911e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.075526678047311</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.377421467581465, -1.7736318885131563]</t>
+          <t>[-2.289368820634004, -1.7358950398213855]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>54.65570572545192</v>
+        <v>57.92518284394658</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.68915724923497, 62.62225420166888]</t>
+          <t>[49.433524683139666, 66.4168410047535]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.412612612612635</v>
+        <v>7.178378378378397</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.334414414414434</v>
+        <v>6.191351351351363</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.490810810810837</v>
+        <v>8.165405405405432</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.292410622966145e-11</v>
+        <v>2.320725023596815e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>1.292410622966145e-11</v>
+        <v>2.320725023596815e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>51.91949134102465</v>
+        <v>46.60787436633152</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[39.7468304168474, 64.09215226520189]</t>
+          <t>[28.90103790522639, 64.31471082743664]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.839351142038595e-11</v>
+        <v>3.350256169376564e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>4.839351142038595e-11</v>
+        <v>3.350256169376564e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.673000292001772</v>
+        <v>-1.660421342437849</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9371582328441566, -1.4088423511593877]</t>
+          <t>[-2.125842476303003, -1.1950002085726954]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>5.413670844944818e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>5.413670844944818e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>55.23555299821228</v>
+        <v>58.0300158516442</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.75879207796882, 62.71231391845575]</t>
+          <t>[47.1458120252659, 68.9142196780225]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>5.975015015015035</v>
+        <v>5.922162162162181</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.031591591591611</v>
+        <v>4.262162162162179</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.91843843843846</v>
+        <v>7.582162162162183</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>6.269843031425637e-07</v>
+        <v>7.453304623039614e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>6.269843031425637e-07</v>
+        <v>7.453304623039614e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.36630559484866</v>
+        <v>35.9014751722157</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[25.856231670121836, 62.87637951957549]</t>
+          <t>[16.794934047672115, 55.00801629675928]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.629776427880536e-05</v>
+        <v>0.0004528138777970536</v>
       </c>
       <c r="O11" t="n">
-        <v>1.629776427880536e-05</v>
+        <v>0.0004528138777970536</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.408842351159386, -0.5534737808126167]</t>
+          <t>[-1.6855792415656943, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.215848374726882e-05</v>
+        <v>0.0001603721358718335</v>
       </c>
       <c r="S11" t="n">
-        <v>3.215848374726882e-05</v>
+        <v>0.0001603721358718335</v>
       </c>
       <c r="T11" t="n">
-        <v>53.00637289404425</v>
+        <v>57.64561436473971</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.01437738905972, 62.99836839902879]</t>
+          <t>[47.23561771895052, 68.0556110105289]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.261657858885883e-14</v>
+        <v>1.532107773982716e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>6.261657858885883e-14</v>
+        <v>1.532107773982716e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>3.504144144144153</v>
+        <v>4.037837837837849</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.976696696696703</v>
+        <v>2.06378378378379</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.031591591591603</v>
+        <v>6.011891891891906</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.733312433558012e-05</v>
+        <v>5.612760256568095e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>4.733312433558012e-05</v>
+        <v>5.612760256568095e-10</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>37.63163679668463</v>
+        <v>52.19086894101547</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[16.583607009410684, 58.67966658395858]</t>
+          <t>[35.0112341668697, 69.37050371516123]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0007870802802749655</v>
+        <v>2.080259260406336e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007870802802749655</v>
+        <v>2.080259260406336e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.6541053773240009</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.1824212590087715, -0.12578949563923025]</t>
+          <t>[-0.9811580659860013, -0.3018947895341544]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01638675626281971</v>
+        <v>0.0004261887287289046</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01638675626281971</v>
+        <v>0.0004261887287289046</v>
       </c>
       <c r="T12" t="n">
-        <v>51.42000725228834</v>
+        <v>57.64278713386431</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.52955678142295, 62.310457723153725]</t>
+          <t>[48.659081708152286, 66.62649255957633]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.451816527582196e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.451816527582196e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>2.336096096096103</v>
+        <v>2.288108108108116</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4492492492492484</v>
+        <v>1.076756756756761</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.222942942942957</v>
+        <v>3.49945945945947</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.62795360922641e-08</v>
+        <v>1.060720354884026e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>4.62795360922641e-08</v>
+        <v>1.060720354884026e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>46.24504762955754</v>
+        <v>43.13933040160351</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[29.254336153951918, 63.23575910516316]</t>
+          <t>[26.12777889003739, 60.15088191316963]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.821399079782182e-06</v>
+        <v>6.425158993295099e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>1.821399079782182e-06</v>
+        <v>6.425158993295099e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.4151053356094625</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.767315923399309, 0.06289474781961601]</t>
+          <t>[-0.855368570346771, 0.02515789912784605]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.09435213781942187</v>
+        <v>0.06398533367983372</v>
       </c>
       <c r="S13" t="n">
-        <v>0.09435213781942187</v>
+        <v>0.06398533367983372</v>
       </c>
       <c r="T13" t="n">
-        <v>58.49401204919274</v>
+        <v>57.09407382583934</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[48.95337245575678, 68.0346516426287]</t>
+          <t>[47.87597854824203, 66.31216910343664]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>4.440892098500626e-16</v>
       </c>
       <c r="X13" t="n">
-        <v>1.257897897897902</v>
+        <v>1.480540540540545</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.2246246246246266</v>
+        <v>-0.08972972972973015</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.74042042042043</v>
+        <v>3.050810810810821</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4.491141713192093e-06</v>
+        <v>3.401076531517333e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>4.491141713192093e-06</v>
+        <v>3.401076531517333e-09</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.22413900049106</v>
+        <v>46.14727073913409</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[20.701536571286056, 55.74674142969607]</t>
+          <t>[31.781048018560085, 60.51349345970809]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.710335762583064e-05</v>
+        <v>6.253810069800636e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>6.710335762583064e-05</v>
+        <v>6.253810069800636e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3836579616996545</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.11950002085726918, 0.8868159442565782]</t>
+          <t>[-0.14465791998511435, 0.5597632555945768]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1316007058554913</v>
+        <v>0.2415021067940046</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1316007058554913</v>
+        <v>0.2415021067940046</v>
       </c>
       <c r="T14" t="n">
-        <v>52.64302684463398</v>
+        <v>55.75964333616412</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[42.98628501674513, 62.29976867252283]</t>
+          <t>[47.21655140783828, 64.30273526448997]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.575717417130363e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.575717417130363e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.06978978978985</v>
+        <v>21.66972972972979</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.27279279279285</v>
+        <v>20.41351351351357</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.86678678678686</v>
+        <v>22.92594594594601</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>5.634262779663501e-07</v>
+        <v>2.398281477855591e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>5.634262779663501e-07</v>
+        <v>2.398281477855591e-07</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>44.17754392540785</v>
+        <v>41.55637837253228</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[24.757537082261734, 63.59755076855397]</t>
+          <t>[24.25820193287491, 58.85455481218965]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.649684182982504e-05</v>
+        <v>1.571396970279082e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>3.649684182982504e-05</v>
+        <v>1.571396970279082e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6352369529781159</v>
+        <v>0.7987632973091161</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.22013161736865428, 1.0503422885875775]</t>
+          <t>[0.40881586082749966, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.00350219410538255</v>
+        <v>0.0001574191257509572</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00350219410538255</v>
+        <v>0.0001574191257509572</v>
       </c>
       <c r="T15" t="n">
-        <v>50.43693628134757</v>
+        <v>54.86274361414043</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[40.51999523348937, 60.35387732920577]</t>
+          <t>[45.97320210231044, 63.75228512597043]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.433608869978343e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W15" t="n">
-        <v>2.433608869978343e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X15" t="n">
-        <v>20.17129129129135</v>
+        <v>19.56108108108114</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.68876876876883</v>
+        <v>18.17027027027032</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.65381381381388</v>
+        <v>20.95189189189195</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_8_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_8_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.849735100767358e-05</v>
+        <v>6.828899812294509e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.849735100767358e-05</v>
+        <v>6.828899812294509e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>39.81735039532097</v>
+        <v>43.18679752942674</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[22.930983689152384, 56.70371710148956]</t>
+          <t>[29.188504002546097, 57.185091056307385]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.110146588374384e-05</v>
+        <v>1.502486473015097e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>2.110146588374384e-05</v>
+        <v>1.502486473015097e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 2.1447109006488887]</t>
+          <t>[1.3270791789938858, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.420344001943022e-08</v>
+        <v>1.944666649933424e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>4.420344001943022e-08</v>
+        <v>1.944666649933424e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>58.43791522169027</v>
+        <v>53.34052954236529</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.992648371808066, 68.88318207157246]</t>
+          <t>[44.71832586469572, 61.962733220034856]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>16.6733333333334</v>
+        <v>16.42402402402409</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.86592592592598</v>
+        <v>15.02142142142148</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.48074074074082</v>
+        <v>17.8266266266267</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>9.978557935497179e-08</v>
+        <v>3.197503566587656e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>9.978557935497179e-08</v>
+        <v>3.197503566587656e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.29302118576967</v>
+        <v>39.09649813446668</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[23.97565469223806, 56.610387679301276]</t>
+          <t>[20.597118840894325, 57.59587742803903]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.004741841059698e-05</v>
+        <v>0.0001040130271612316</v>
       </c>
       <c r="O3" t="n">
-        <v>1.004741841059698e-05</v>
+        <v>0.0001040130271612316</v>
       </c>
       <c r="P3" t="n">
-        <v>2.169868799776735</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.7547634641672731, 2.5849741353861964]</t>
+          <t>[1.7421845146033474, 2.6478688832058124]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.010302952408892e-13</v>
+        <v>1.09712239293458e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.010302952408892e-13</v>
+        <v>1.09712239293458e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>58.81485820101456</v>
+        <v>50.17787009260585</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.47181123400847, 67.15790516802065]</t>
+          <t>[40.62848366850617, 59.72725651670553]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>8.548717289613705e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.548717289613705e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>14.77555555555561</v>
+        <v>14.70470470470477</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.2844444444445</v>
+        <v>13.07587587587593</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.26666666666673</v>
+        <v>16.33353353353361</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>9.764208206419767e-06</v>
+        <v>2.270961196870758e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>9.764208206419767e-06</v>
+        <v>2.270961196870758e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>37.6097066813717</v>
+        <v>52.73633990506479</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[18.268398481670033, 56.95101488107338]</t>
+          <t>[37.57805226452585, 67.89462754560373]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0003021797149178607</v>
+        <v>9.944043366516553e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003021797149178607</v>
+        <v>9.944043366516553e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.39628989192735</v>
+        <v>2.610132034514043</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 2.8742899753564277]</t>
+          <t>[2.3082372449798885, 2.9120268240481972]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.839151219153791e-13</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.839151219153791e-13</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.26306994642268</v>
+        <v>52.68578935180413</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.414019011097075, 62.11212088174829]</t>
+          <t>[44.56074011570814, 60.81083858790012]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.217248937900877e-14</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.217248937900877e-14</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.96222222222227</v>
+        <v>13.21161161161166</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.24518518518523</v>
+        <v>12.12572572572577</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.67925925925932</v>
+        <v>14.29749749749755</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.831219623304463e-08</v>
+        <v>3.0324484456834e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>6.831219623304463e-08</v>
+        <v>3.0324484456834e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>35.30460813522992</v>
+        <v>35.03319966766369</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[22.247049088392473, 48.36216718206737]</t>
+          <t>[21.54407767599068, 48.52232165933671]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.059402699039481e-06</v>
+        <v>4.248443077559116e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>2.059402699039481e-06</v>
+        <v>4.248443077559116e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.836553126664658</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.434026740619119, 3.2390795127101972]</t>
+          <t>[2.446605690183042, 3.3271321596576584]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,27 +881,27 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>49.97488747957316</v>
+        <v>45.45125739216768</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.57493138016335, 57.374843578982976]</t>
+          <t>[37.60769088939442, 53.29482389494095]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>12.38074074074079</v>
+        <v>12.21621621621627</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.93481481481486</v>
+        <v>10.63263263263268</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.82666666666672</v>
+        <v>13.79979979979985</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.109035416950292e-11</v>
+        <v>2.40507124660283e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>5.109035416950292e-11</v>
+        <v>2.40507124660283e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>53.33270135470645</v>
+        <v>44.89399120286503</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[39.273414372985684, 67.39198833642722]</t>
+          <t>[29.29787792720885, 60.49010447852121]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.156431839177685e-09</v>
+        <v>6.229444771133075e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.156431839177685e-09</v>
+        <v>6.229444771133075e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>2.987500521431735</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.6730267823336584, 3.3019742605298115]</t>
+          <t>[-3.4843690292066976, -2.6038425597320805]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,27 +967,27 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>54.69964601716997</v>
+        <v>58.16558949550975</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.18554189086881, 63.213750143471124]</t>
+          <t>[48.23856524263012, 68.09261374838937]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>11.83851851851857</v>
+        <v>10.94934934934939</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.70888888888893</v>
+        <v>9.365765765765802</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.9681481481482</v>
+        <v>12.53293293293298</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.267618147757446e-09</v>
+        <v>6.47731868141932e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>4.267618147757446e-09</v>
+        <v>6.47731868141932e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>39.88752143047614</v>
+        <v>48.35830787963568</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[25.451224875736933, 54.32381798521535]</t>
+          <t>[33.74685793391279, 62.96975782535857]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.37465409655313e-06</v>
+        <v>3.193927722300316e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37465409655313e-06</v>
+        <v>3.193927722300316e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.47805306409285</v>
+        <v>-2.540947811912465</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.8302636518826962, -2.1258424763030033]</t>
+          <t>[-2.8428426014466197, -2.239053022378311]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.78325595868335</v>
+        <v>55.29113916670879</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.500980563768564, 60.06553135359813]</t>
+          <t>[47.681516595957476, 62.9007617374601]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>8.901481481481516</v>
+        <v>9.139539539539577</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.636296296296327</v>
+        <v>8.053653653653686</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.16666666666671</v>
+        <v>10.22542542542547</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.26141456741658e-07</v>
+        <v>2.826183942428173e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>7.26141456741658e-07</v>
+        <v>2.826183942428173e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>37.50398569152924</v>
+        <v>48.56010150385045</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[20.93888515798225, 54.06908622507623]</t>
+          <t>[30.06316996568958, 67.05703304201133]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.917683961951468e-05</v>
+        <v>3.510553611141276e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>3.917683961951468e-05</v>
+        <v>3.510553611141276e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.301947770197927</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.717053105807389, -1.886842434588464]</t>
+          <t>[-2.6918952066795434, -1.9623161319720026]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.443289932012704e-14</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.443289932012704e-14</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>48.79899139386255</v>
+        <v>62.58371637161487</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.38029031428222, 57.21769247344288]</t>
+          <t>[53.12049069105905, 72.04694205217069]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8.210270270270293</v>
+        <v>8.325925925925954</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.729729729729747</v>
+        <v>7.020780780780803</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.690810810810838</v>
+        <v>9.631071071071107</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.687838840387258e-11</v>
+        <v>2.584657989868067e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.687838840387258e-11</v>
+        <v>2.584657989868067e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.27137107165192</v>
+        <v>41.25739891320995</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[41.778058508566936, 72.76468363473691]</t>
+          <t>[20.91045336653702, 61.60434445988289]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.238993879188911e-09</v>
+        <v>0.0001794401526769018</v>
       </c>
       <c r="O9" t="n">
-        <v>2.238993879188911e-09</v>
+        <v>0.0001794401526769018</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.012631930227695</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.289368820634004, -1.7358950398213855]</t>
+          <t>[-2.515789912784619, -1.4340002502872342]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.053082675563701e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.053082675563701e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>57.92518284394658</v>
+        <v>56.70739614326614</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.433524683139666, 66.4168410047535]</t>
+          <t>[45.6646161340648, 67.75017615246747]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.789679515695752e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.789679515695752e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>7.178378378378397</v>
+        <v>7.065785785785812</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.191351351351363</v>
+        <v>5.130570570570592</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.165405405405432</v>
+        <v>9.001001001001031</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.320725023596815e-06</v>
+        <v>1.114826675419067e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.320725023596815e-06</v>
+        <v>1.114826675419067e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.60787436633152</v>
+        <v>47.22630005936345</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[28.90103790522639, 64.31471082743664]</t>
+          <t>[34.31051371103034, 60.14208640769657]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.350256169376564e-06</v>
+        <v>2.94403079692529e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>3.350256169376564e-06</v>
+        <v>2.94403079692529e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.660421342437849</v>
+        <v>-1.647842392873925</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.125842476303003, -1.1950002085726954]</t>
+          <t>[-1.9371582328441566, -1.3585265529036938]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5.413670844944818e-09</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>5.413670844944818e-09</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>58.0300158516442</v>
+        <v>53.86309548558265</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.1458120252659, 68.9142196780225]</t>
+          <t>[45.911760570777524, 61.81443040038777]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.922162162162181</v>
+        <v>5.895655655655673</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.262162162162179</v>
+        <v>4.860540540540555</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.582162162162183</v>
+        <v>6.930770770770792</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>7.453304623039614e-05</v>
+        <v>6.53232501424128e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>7.453304623039614e-05</v>
+        <v>6.53232501424128e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>35.9014751722157</v>
+        <v>43.74600560762308</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[16.794934047672115, 55.00801629675928]</t>
+          <t>[28.508239152079327, 58.98377206316684]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0004528138777970536</v>
+        <v>6.565037549144392e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004528138777970536</v>
+        <v>6.565037549144392e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.132105460753078</v>
+        <v>-1.031473864241693</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.6855792415656943, -0.5786316799404627]</t>
+          <t>[-1.396263401595463, -0.6666843268879239]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0001603721358718335</v>
+        <v>8.835567606446659e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0001603721358718335</v>
+        <v>8.835567606446659e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>57.64561436473971</v>
+        <v>44.08997080282376</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.23561771895052, 68.0556110105289]</t>
+          <t>[36.01549159688784, 52.16445000875969]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>2.420286193682841e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>2.420286193682841e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>4.037837837837849</v>
+        <v>3.690410410410422</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.06378378378379</v>
+        <v>2.385265265265273</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.011891891891906</v>
+        <v>4.995555555555571</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5.612760256568095e-10</v>
+        <v>1.546991518552865e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>5.612760256568095e-10</v>
+        <v>1.546991518552865e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>52.19086894101547</v>
+        <v>41.92610321954371</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[35.0112341668697, 69.37050371516123]</t>
+          <t>[22.986185331864867, 60.866021107222544]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.080259260406336e-07</v>
+        <v>5.444016343170155e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>2.080259260406336e-07</v>
+        <v>5.444016343170155e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.6415264277600778</v>
+        <v>-0.5912106295043857</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, -0.3018947895341544]</t>
+          <t>[-1.0566317633695403, -0.12578949563923114]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0004261887287289046</v>
+        <v>0.01394947863485108</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0004261887287289046</v>
+        <v>0.01394947863485108</v>
       </c>
       <c r="T12" t="n">
-        <v>57.64278713386431</v>
+        <v>60.25411456126595</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.659081708152286, 66.62649255957633]</t>
+          <t>[50.19118156382363, 70.31704755870827]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>2.288108108108116</v>
+        <v>2.115235235235243</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.076756756756761</v>
+        <v>0.4500500500500522</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.49945945945947</v>
+        <v>3.780420420420434</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.060720354884026e-07</v>
+        <v>4.537603737198026e-09</v>
       </c>
       <c r="I13" t="n">
-        <v>1.060720354884026e-07</v>
+        <v>4.537603737198026e-09</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.13933040160351</v>
+        <v>47.82112368790798</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[26.12777889003739, 60.15088191316963]</t>
+          <t>[32.66873162809009, 62.97351574772586]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>6.425158993295099e-06</v>
+        <v>9.215665719430888e-08</v>
       </c>
       <c r="O13" t="n">
-        <v>6.425158993295099e-06</v>
+        <v>9.215665719430888e-08</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.4151053356094625</v>
+        <v>-0.2641579408423853</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.855368570346771, 0.02515789912784605]</t>
+          <t>[-0.6163685286322318, 0.08805264694746118]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.06398533367983372</v>
+        <v>0.1378868762615153</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06398533367983372</v>
+        <v>0.1378868762615153</v>
       </c>
       <c r="T13" t="n">
-        <v>57.09407382583934</v>
+        <v>58.20124140144672</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.87597854824203, 66.31216910343664]</t>
+          <t>[49.20919249014175, 67.19329031275169]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.480540540540545</v>
+        <v>0.9451051051051103</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.08972972972973015</v>
+        <v>-0.3150350350350333</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.050810810810821</v>
+        <v>2.205245245245254</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.401076531517333e-09</v>
+        <v>8.532674715011623e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>3.401076531517333e-09</v>
+        <v>8.532674715011623e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>46.14727073913409</v>
+        <v>38.15344334107749</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[31.781048018560085, 60.51349345970809]</t>
+          <t>[20.874031138304893, 55.43285554385009]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.253810069800636e-08</v>
+        <v>5.646230840672395e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>6.253810069800636e-08</v>
+        <v>5.646230840672395e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2075526678047313</v>
+        <v>0.2201316173686534</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.14465791998511435, 0.5597632555945768]</t>
+          <t>[-0.32076321388004025, 0.761026448617347]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2415021067940046</v>
+        <v>0.4167115247664204</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2415021067940046</v>
+        <v>0.4167115247664204</v>
       </c>
       <c r="T14" t="n">
-        <v>55.75964333616412</v>
+        <v>56.23727902913632</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[47.21655140783828, 64.30273526448997]</t>
+          <t>[46.19154841568724, 66.2830096425854]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>21.66972972972979</v>
+        <v>21.69241241241249</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41351351351357</v>
+        <v>19.75719719719726</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.92594594594601</v>
+        <v>23.62762762762771</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.398281477855591e-07</v>
+        <v>3.414065585793935e-09</v>
       </c>
       <c r="I15" t="n">
-        <v>2.398281477855591e-07</v>
+        <v>3.414065585793935e-09</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>41.55637837253228</v>
+        <v>46.13202319083379</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[24.25820193287491, 58.85455481218965]</t>
+          <t>[30.468294439522396, 61.79575194214519]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.571396970279082e-05</v>
+        <v>3.941232415982654e-07</v>
       </c>
       <c r="O15" t="n">
-        <v>1.571396970279082e-05</v>
+        <v>3.941232415982654e-07</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7987632973091161</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.40881586082749966, 1.1887107337907326]</t>
+          <t>[0.2327105669325764, 0.9119738433844251]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0001574191257509572</v>
+        <v>0.001446216372916975</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0001574191257509572</v>
+        <v>0.001446216372916975</v>
       </c>
       <c r="T15" t="n">
-        <v>54.86274361414043</v>
+        <v>46.81899790482486</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[45.97320210231044, 63.75228512597043]</t>
+          <t>[38.429003207305904, 55.20899260234382]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="W15" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="X15" t="n">
-        <v>19.56108108108114</v>
+        <v>20.43227227227234</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.17027027027032</v>
+        <v>19.2171371371372</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.95189189189195</v>
+        <v>21.64740740740748</v>
       </c>
     </row>
   </sheetData>
